--- a/_data/DOGEUSDT_2h.xlsx
+++ b/_data/DOGEUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1286 @@
         <v>30986647</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>0.10131</v>
+      </c>
+      <c r="C1169">
+        <v>0.10249</v>
+      </c>
+      <c r="D1169">
+        <v>0.10003</v>
+      </c>
+      <c r="E1169">
+        <v>0.10115</v>
+      </c>
+      <c r="F1169">
+        <v>51628941</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>0.10115</v>
+      </c>
+      <c r="C1170">
+        <v>0.10165</v>
+      </c>
+      <c r="D1170">
+        <v>0.09805999999999999</v>
+      </c>
+      <c r="E1170">
+        <v>0.09848</v>
+      </c>
+      <c r="F1170">
+        <v>102057670</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>0.09848999999999999</v>
+      </c>
+      <c r="C1171">
+        <v>0.09948</v>
+      </c>
+      <c r="D1171">
+        <v>0.09697</v>
+      </c>
+      <c r="E1171">
+        <v>0.09905</v>
+      </c>
+      <c r="F1171">
+        <v>81899518</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>0.09905</v>
+      </c>
+      <c r="C1172">
+        <v>0.10167</v>
+      </c>
+      <c r="D1172">
+        <v>0.09901</v>
+      </c>
+      <c r="E1172">
+        <v>0.10016</v>
+      </c>
+      <c r="F1172">
+        <v>65308486</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>0.10016</v>
+      </c>
+      <c r="C1173">
+        <v>0.10105</v>
+      </c>
+      <c r="D1173">
+        <v>0.10012</v>
+      </c>
+      <c r="E1173">
+        <v>0.10085</v>
+      </c>
+      <c r="F1173">
+        <v>24573636</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>0.10086</v>
+      </c>
+      <c r="C1174">
+        <v>0.10315</v>
+      </c>
+      <c r="D1174">
+        <v>0.10085</v>
+      </c>
+      <c r="E1174">
+        <v>0.10177</v>
+      </c>
+      <c r="F1174">
+        <v>83072284</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>0.10177</v>
+      </c>
+      <c r="C1175">
+        <v>0.10239</v>
+      </c>
+      <c r="D1175">
+        <v>0.10132</v>
+      </c>
+      <c r="E1175">
+        <v>0.10169</v>
+      </c>
+      <c r="F1175">
+        <v>70740852</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>0.10137</v>
+      </c>
+      <c r="C1176">
+        <v>0.1015</v>
+      </c>
+      <c r="D1176">
+        <v>0.10087</v>
+      </c>
+      <c r="E1176">
+        <v>0.10126</v>
+      </c>
+      <c r="F1176">
+        <v>17128285</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>0.10127</v>
+      </c>
+      <c r="C1177">
+        <v>0.10192</v>
+      </c>
+      <c r="D1177">
+        <v>0.10126</v>
+      </c>
+      <c r="E1177">
+        <v>0.10139</v>
+      </c>
+      <c r="F1177">
+        <v>8491462</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>0.1014</v>
+      </c>
+      <c r="C1178">
+        <v>0.10171</v>
+      </c>
+      <c r="D1178">
+        <v>0.10097</v>
+      </c>
+      <c r="E1178">
+        <v>0.10111</v>
+      </c>
+      <c r="F1178">
+        <v>19419000</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>0.10111</v>
+      </c>
+      <c r="C1179">
+        <v>0.10126</v>
+      </c>
+      <c r="D1179">
+        <v>0.10035</v>
+      </c>
+      <c r="E1179">
+        <v>0.10069</v>
+      </c>
+      <c r="F1179">
+        <v>18489011</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>0.1007</v>
+      </c>
+      <c r="C1180">
+        <v>0.10152</v>
+      </c>
+      <c r="D1180">
+        <v>0.10055</v>
+      </c>
+      <c r="E1180">
+        <v>0.10125</v>
+      </c>
+      <c r="F1180">
+        <v>15015949</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>0.10125</v>
+      </c>
+      <c r="C1181">
+        <v>0.10152</v>
+      </c>
+      <c r="D1181">
+        <v>0.1008</v>
+      </c>
+      <c r="E1181">
+        <v>0.10084</v>
+      </c>
+      <c r="F1181">
+        <v>14251130</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>0.10083</v>
+      </c>
+      <c r="C1182">
+        <v>0.10166</v>
+      </c>
+      <c r="D1182">
+        <v>0.10076</v>
+      </c>
+      <c r="E1182">
+        <v>0.10163</v>
+      </c>
+      <c r="F1182">
+        <v>19162732</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>0.10164</v>
+      </c>
+      <c r="C1183">
+        <v>0.10165</v>
+      </c>
+      <c r="D1183">
+        <v>0.10055</v>
+      </c>
+      <c r="E1183">
+        <v>0.1013</v>
+      </c>
+      <c r="F1183">
+        <v>19566976</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>0.10131</v>
+      </c>
+      <c r="C1184">
+        <v>0.10196</v>
+      </c>
+      <c r="D1184">
+        <v>0.10129</v>
+      </c>
+      <c r="E1184">
+        <v>0.10187</v>
+      </c>
+      <c r="F1184">
+        <v>5164835</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>0.10106</v>
+      </c>
+      <c r="C1185">
+        <v>0.10145</v>
+      </c>
+      <c r="D1185">
+        <v>0.10091</v>
+      </c>
+      <c r="E1185">
+        <v>0.10134</v>
+      </c>
+      <c r="F1185">
+        <v>11594733</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>0.10157</v>
+      </c>
+      <c r="C1186">
+        <v>0.10172</v>
+      </c>
+      <c r="D1186">
+        <v>0.10111</v>
+      </c>
+      <c r="E1186">
+        <v>0.10129</v>
+      </c>
+      <c r="F1186">
+        <v>4225857</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>0.10128</v>
+      </c>
+      <c r="C1187">
+        <v>0.10153</v>
+      </c>
+      <c r="D1187">
+        <v>0.10035</v>
+      </c>
+      <c r="E1187">
+        <v>0.10042</v>
+      </c>
+      <c r="F1187">
+        <v>13160157</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>0.10043</v>
+      </c>
+      <c r="C1188">
+        <v>0.1007</v>
+      </c>
+      <c r="D1188">
+        <v>0.09974</v>
+      </c>
+      <c r="E1188">
+        <v>0.10028</v>
+      </c>
+      <c r="F1188">
+        <v>17770505</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>0.10027</v>
+      </c>
+      <c r="C1189">
+        <v>0.10028</v>
+      </c>
+      <c r="D1189">
+        <v>0.0985</v>
+      </c>
+      <c r="E1189">
+        <v>0.0987</v>
+      </c>
+      <c r="F1189">
+        <v>38060623</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>0.0987</v>
+      </c>
+      <c r="C1190">
+        <v>0.09975000000000001</v>
+      </c>
+      <c r="D1190">
+        <v>0.09861</v>
+      </c>
+      <c r="E1190">
+        <v>0.09975000000000001</v>
+      </c>
+      <c r="F1190">
+        <v>19504058</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>0.09974</v>
+      </c>
+      <c r="C1191">
+        <v>0.09984999999999999</v>
+      </c>
+      <c r="D1191">
+        <v>0.09931</v>
+      </c>
+      <c r="E1191">
+        <v>0.0994</v>
+      </c>
+      <c r="F1191">
+        <v>13613038</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>0.0994</v>
+      </c>
+      <c r="C1192">
+        <v>0.0994</v>
+      </c>
+      <c r="D1192">
+        <v>0.09883</v>
+      </c>
+      <c r="E1192">
+        <v>0.09895</v>
+      </c>
+      <c r="F1192">
+        <v>2844566</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>0.09936</v>
+      </c>
+      <c r="C1193">
+        <v>0.09944</v>
+      </c>
+      <c r="D1193">
+        <v>0.09807</v>
+      </c>
+      <c r="E1193">
+        <v>0.0987</v>
+      </c>
+      <c r="F1193">
+        <v>29442052</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>0.0987</v>
+      </c>
+      <c r="C1194">
+        <v>0.09896000000000001</v>
+      </c>
+      <c r="D1194">
+        <v>0.09726</v>
+      </c>
+      <c r="E1194">
+        <v>0.09855999999999999</v>
+      </c>
+      <c r="F1194">
+        <v>83932083</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>0.09855999999999999</v>
+      </c>
+      <c r="C1195">
+        <v>0.09887</v>
+      </c>
+      <c r="D1195">
+        <v>0.09841</v>
+      </c>
+      <c r="E1195">
+        <v>0.09848</v>
+      </c>
+      <c r="F1195">
+        <v>6119774</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>0.09741</v>
+      </c>
+      <c r="C1196">
+        <v>0.09934</v>
+      </c>
+      <c r="D1196">
+        <v>0.09728000000000001</v>
+      </c>
+      <c r="E1196">
+        <v>0.09913</v>
+      </c>
+      <c r="F1196">
+        <v>37164960</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>0.09912</v>
+      </c>
+      <c r="C1197">
+        <v>0.09952</v>
+      </c>
+      <c r="D1197">
+        <v>0.0978</v>
+      </c>
+      <c r="E1197">
+        <v>0.09819</v>
+      </c>
+      <c r="F1197">
+        <v>12311228</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>0.09819</v>
+      </c>
+      <c r="C1198">
+        <v>0.09829</v>
+      </c>
+      <c r="D1198">
+        <v>0.09388000000000001</v>
+      </c>
+      <c r="E1198">
+        <v>0.09508999999999999</v>
+      </c>
+      <c r="F1198">
+        <v>109064946</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>0.09508</v>
+      </c>
+      <c r="C1199">
+        <v>0.09606000000000001</v>
+      </c>
+      <c r="D1199">
+        <v>0.09495000000000001</v>
+      </c>
+      <c r="E1199">
+        <v>0.09548</v>
+      </c>
+      <c r="F1199">
+        <v>44101270</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>0.09548</v>
+      </c>
+      <c r="C1200">
+        <v>0.09593</v>
+      </c>
+      <c r="D1200">
+        <v>0.09468</v>
+      </c>
+      <c r="E1200">
+        <v>0.09522</v>
+      </c>
+      <c r="F1200">
+        <v>52604458</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>0.09521</v>
+      </c>
+      <c r="C1201">
+        <v>0.09571</v>
+      </c>
+      <c r="D1201">
+        <v>0.0941</v>
+      </c>
+      <c r="E1201">
+        <v>0.09525</v>
+      </c>
+      <c r="F1201">
+        <v>35397426</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>0.09526</v>
+      </c>
+      <c r="C1202">
+        <v>0.0956</v>
+      </c>
+      <c r="D1202">
+        <v>0.09408999999999999</v>
+      </c>
+      <c r="E1202">
+        <v>0.09453</v>
+      </c>
+      <c r="F1202">
+        <v>33139086</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>0.09452000000000001</v>
+      </c>
+      <c r="C1203">
+        <v>0.09759</v>
+      </c>
+      <c r="D1203">
+        <v>0.09440999999999999</v>
+      </c>
+      <c r="E1203">
+        <v>0.09739</v>
+      </c>
+      <c r="F1203">
+        <v>48056418</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>0.09737</v>
+      </c>
+      <c r="C1204">
+        <v>0.09802</v>
+      </c>
+      <c r="D1204">
+        <v>0.09704</v>
+      </c>
+      <c r="E1204">
+        <v>0.0973</v>
+      </c>
+      <c r="F1204">
+        <v>42795932</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>0.0973</v>
+      </c>
+      <c r="C1205">
+        <v>0.09754</v>
+      </c>
+      <c r="D1205">
+        <v>0.09665</v>
+      </c>
+      <c r="E1205">
+        <v>0.09669</v>
+      </c>
+      <c r="F1205">
+        <v>24279902</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>0.09669</v>
+      </c>
+      <c r="C1206">
+        <v>0.09797</v>
+      </c>
+      <c r="D1206">
+        <v>0.0961</v>
+      </c>
+      <c r="E1206">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="F1206">
+        <v>43006256</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>0.09735000000000001</v>
+      </c>
+      <c r="C1207">
+        <v>0.09789</v>
+      </c>
+      <c r="D1207">
+        <v>0.09691</v>
+      </c>
+      <c r="E1207">
+        <v>0.09785000000000001</v>
+      </c>
+      <c r="F1207">
+        <v>17486708</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>0.09786</v>
+      </c>
+      <c r="C1208">
+        <v>0.09809</v>
+      </c>
+      <c r="D1208">
+        <v>0.09725</v>
+      </c>
+      <c r="E1208">
+        <v>0.09783</v>
+      </c>
+      <c r="F1208">
+        <v>24977096</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>0.09784</v>
+      </c>
+      <c r="C1209">
+        <v>0.09822</v>
+      </c>
+      <c r="D1209">
+        <v>0.09761</v>
+      </c>
+      <c r="E1209">
+        <v>0.09816</v>
+      </c>
+      <c r="F1209">
+        <v>9136522</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>0.09894</v>
+      </c>
+      <c r="C1210">
+        <v>0.09929</v>
+      </c>
+      <c r="D1210">
+        <v>0.09866999999999999</v>
+      </c>
+      <c r="E1210">
+        <v>0.09912</v>
+      </c>
+      <c r="F1210">
+        <v>26711676</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>0.09912</v>
+      </c>
+      <c r="C1211">
+        <v>0.09997</v>
+      </c>
+      <c r="D1211">
+        <v>0.09881</v>
+      </c>
+      <c r="E1211">
+        <v>0.09995</v>
+      </c>
+      <c r="F1211">
+        <v>26582852</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>0.09994</v>
+      </c>
+      <c r="C1212">
+        <v>0.10081</v>
+      </c>
+      <c r="D1212">
+        <v>0.09951</v>
+      </c>
+      <c r="E1212">
+        <v>0.09957000000000001</v>
+      </c>
+      <c r="F1212">
+        <v>50501625</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>0.09958</v>
+      </c>
+      <c r="C1213">
+        <v>0.09970999999999999</v>
+      </c>
+      <c r="D1213">
+        <v>0.09901</v>
+      </c>
+      <c r="E1213">
+        <v>0.09968</v>
+      </c>
+      <c r="F1213">
+        <v>20391619</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>0.09968</v>
+      </c>
+      <c r="C1214">
+        <v>0.09972</v>
+      </c>
+      <c r="D1214">
+        <v>0.09923</v>
+      </c>
+      <c r="E1214">
+        <v>0.09959</v>
+      </c>
+      <c r="F1214">
+        <v>19839187</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="C1215">
+        <v>0.09964000000000001</v>
+      </c>
+      <c r="D1215">
+        <v>0.09859999999999999</v>
+      </c>
+      <c r="E1215">
+        <v>0.09915</v>
+      </c>
+      <c r="F1215">
+        <v>14652252</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>0.09916</v>
+      </c>
+      <c r="C1216">
+        <v>0.0997</v>
+      </c>
+      <c r="D1216">
+        <v>0.09905</v>
+      </c>
+      <c r="E1216">
+        <v>0.09962</v>
+      </c>
+      <c r="F1216">
+        <v>12442421</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>0.09962</v>
+      </c>
+      <c r="C1217">
+        <v>0.1005</v>
+      </c>
+      <c r="D1217">
+        <v>0.09813</v>
+      </c>
+      <c r="E1217">
+        <v>0.09832</v>
+      </c>
+      <c r="F1217">
+        <v>55778792</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>0.09832</v>
+      </c>
+      <c r="C1218">
+        <v>0.09832</v>
+      </c>
+      <c r="D1218">
+        <v>0.09673</v>
+      </c>
+      <c r="E1218">
+        <v>0.09692000000000001</v>
+      </c>
+      <c r="F1218">
+        <v>60018827</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>0.0969</v>
+      </c>
+      <c r="C1219">
+        <v>0.09863</v>
+      </c>
+      <c r="D1219">
+        <v>0.09667000000000001</v>
+      </c>
+      <c r="E1219">
+        <v>0.0979</v>
+      </c>
+      <c r="F1219">
+        <v>27153752</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>0.09791</v>
+      </c>
+      <c r="C1220">
+        <v>0.09848</v>
+      </c>
+      <c r="D1220">
+        <v>0.09741</v>
+      </c>
+      <c r="E1220">
+        <v>0.09773</v>
+      </c>
+      <c r="F1220">
+        <v>20818968</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>0.09773</v>
+      </c>
+      <c r="C1221">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="D1221">
+        <v>0.09739</v>
+      </c>
+      <c r="E1221">
+        <v>0.0979</v>
+      </c>
+      <c r="F1221">
+        <v>26361516</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>0.09789</v>
+      </c>
+      <c r="C1222">
+        <v>0.098</v>
+      </c>
+      <c r="D1222">
+        <v>0.09639</v>
+      </c>
+      <c r="E1222">
+        <v>0.09676999999999999</v>
+      </c>
+      <c r="F1222">
+        <v>19377285</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>0.09678</v>
+      </c>
+      <c r="C1223">
+        <v>0.0975</v>
+      </c>
+      <c r="D1223">
+        <v>0.09184</v>
+      </c>
+      <c r="E1223">
+        <v>0.09472999999999999</v>
+      </c>
+      <c r="F1223">
+        <v>189613436</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>0.09472999999999999</v>
+      </c>
+      <c r="C1224">
+        <v>0.09607</v>
+      </c>
+      <c r="D1224">
+        <v>0.09444</v>
+      </c>
+      <c r="E1224">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="F1224">
+        <v>54428072</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>0.09581000000000001</v>
+      </c>
+      <c r="C1225">
+        <v>0.09598</v>
+      </c>
+      <c r="D1225">
+        <v>0.09449</v>
+      </c>
+      <c r="E1225">
+        <v>0.09472999999999999</v>
+      </c>
+      <c r="F1225">
+        <v>52192883</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>0.09474</v>
+      </c>
+      <c r="C1226">
+        <v>0.09676</v>
+      </c>
+      <c r="D1226">
+        <v>0.09474</v>
+      </c>
+      <c r="E1226">
+        <v>0.09636</v>
+      </c>
+      <c r="F1226">
+        <v>43786677</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>0.09637</v>
+      </c>
+      <c r="C1227">
+        <v>0.09697</v>
+      </c>
+      <c r="D1227">
+        <v>0.09622</v>
+      </c>
+      <c r="E1227">
+        <v>0.09628</v>
+      </c>
+      <c r="F1227">
+        <v>27646802</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>0.09626999999999999</v>
+      </c>
+      <c r="C1228">
+        <v>0.09641</v>
+      </c>
+      <c r="D1228">
+        <v>0.09506000000000001</v>
+      </c>
+      <c r="E1228">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="F1228">
+        <v>34568664</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="C1229">
+        <v>0.09594</v>
+      </c>
+      <c r="D1229">
+        <v>0.09487</v>
+      </c>
+      <c r="E1229">
+        <v>0.09575</v>
+      </c>
+      <c r="F1229">
+        <v>26908915</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>0.09576</v>
+      </c>
+      <c r="C1230">
+        <v>0.0988</v>
+      </c>
+      <c r="D1230">
+        <v>0.09533</v>
+      </c>
+      <c r="E1230">
+        <v>0.09854</v>
+      </c>
+      <c r="F1230">
+        <v>109524465</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>0.09853000000000001</v>
+      </c>
+      <c r="C1231">
+        <v>0.09951</v>
+      </c>
+      <c r="D1231">
+        <v>0.09814000000000001</v>
+      </c>
+      <c r="E1231">
+        <v>0.09829</v>
+      </c>
+      <c r="F1231">
+        <v>77886819</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>0.09829</v>
+      </c>
+      <c r="C1232">
+        <v>0.09855</v>
+      </c>
+      <c r="D1232">
+        <v>0.09759</v>
+      </c>
+      <c r="E1232">
+        <v>0.09798</v>
+      </c>
+      <c r="F1232">
+        <v>13793900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
